--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY252"/>
+  <dimension ref="A1:AY256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62235,6 +62235,978 @@
       </c>
       <c r="AY252" t="inlineStr"/>
     </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>259</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB253" t="inlineStr"/>
+      <c r="AC253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM253" t="inlineStr"/>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU253" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AY253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>260</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AA254" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr"/>
+      <c r="AC254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL254" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AM254" t="inlineStr"/>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AX254" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>261</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>Actualmente la IE no cuenta con docente de planta de informática. El docente formado en pensamiento computacional es quien dicta informática en los grados asignados para recibir está asignatura que son 4,5, 6, 7, 9 y 10. Dicho docente en 2021 trabajo fichas con estudiantes de 5 pero.no está en el plan de estudios.</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB255" t="inlineStr">
+        <is>
+          <t>Los estudiantes con necesidades educativas especiales se motivan por el solo hecho de ver el computador. No hay diferencias entre niños y niñas, las áreas stem se muestran accesible para todos.</t>
+        </is>
+      </c>
+      <c r="AC255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AI255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM255" t="inlineStr">
+        <is>
+          <t>En la IE no hay diferencias entre las capacidades de niñas y niños, se maneja la igualdad de condiciones.</t>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ255" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AR255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU255" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW255" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AX255" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AY255" t="inlineStr">
+        <is>
+          <t>Actualmente la preparación de los docentes en pensamiento computacional fue por iniciativa propia. El consejo directivo no interviene en el plan de estudios, es el consejo académico quien revisa, válida y aprueba.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>262</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pensamiento computacional se desarrolla pero de manera mínima </t>
+        </is>
+      </c>
+      <c r="AC256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AM256" t="inlineStr"/>
+      <c r="AN256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX256" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY256" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/LideresCFK.xlsx
+++ b/data/descargables/LideresCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY256"/>
+  <dimension ref="A1:AY260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63207,6 +63207,986 @@
       </c>
       <c r="AY256" t="inlineStr"/>
     </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>263</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AB257" t="inlineStr"/>
+      <c r="AC257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AD257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AG257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AH257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AK257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM257" t="inlineStr"/>
+      <c r="AN257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AO257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AS257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX257" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>264</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AA258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB258" t="inlineStr"/>
+      <c r="AC258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AL258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM258" t="inlineStr"/>
+      <c r="AN258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AP258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AQ258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AR258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AV258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AW258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AX258" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>265</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>031</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En la entrevista con la docente se aclara que el plan de estudio de tecnología e informática, basa su construcción en los lineamientos del MEN y las propuestas didácticas de docentes del área. Al ser una sede de bachillerato, la docente es la encargada de trabajar de forma autónoma, ya que la propuesta de área está en construcción y ajustes continuos. Se aclara además, que el plan de estudio se propone como un apoyo a las demás áreas académicas, transversalizando las actividades para incentivar a las y los estudiantes a desarrollar proyectos de otras áreas, a través de ejercicios que incluyen ofimática, además de explorar y reconocer la netiqueta, no obstante, se menciona que por ejemplo, en años anteriores se ha trabajado robótica con estudiantes de ingenierías de último semestre que hacen su práctica profesional y social en el I.E. a través del programa paz y región, de la Universidad de Ibagué y acercamiento con la programación con grados 10° y 11°. Para este 2022, se incluirá desde grado sexto la exploración del programa makecode y de las microbits en los acuerdos pedagógicos. </t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB259" t="inlineStr">
+        <is>
+          <t>La docente expresa que en la I.E. se manejan planes y estrategias específicas para comunidad con necesidades especiales, se menciona que existe un plan curricular especial, dependiendo del tipo de discapacidad de cada estudiante, aparte del plan de estudio del área de tecnología e informática, exaltando que en esa propuesta se da mayor relevancia a la inclusión, el respeto y a generar comodidad en las y los estudiantes. Se menciona también que en la I.E. se evita las actividades extracurriculares.</t>
+        </is>
+      </c>
+      <c r="AC259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se exalta que en la sede existe mayor participación femenina en procesos de gran relevancia como el gobierno escolar, además en la comunidad educativa se respeta la diversidad y los procesos individuales de las y los estudiantes, por ejemplo, se menciona el caso de un estudiante transgénero, que se identifica con el género masculino; no obstante, en el plan de estudio no se menciona ni se hace énfasis en ninguno de estos aspectos. </t>
+        </is>
+      </c>
+      <c r="AN259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS259" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AT259" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AU259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW259" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AX259" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY259" t="inlineStr">
+        <is>
+          <t>Los procesos de cada docente y de cada área, al parecer son bastante autónomos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>266</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Encuesta Líderes</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>Se menciona que para la construcción del plan de área, se tiene en cuenta que cada jornada tiene una modalidad o técnica particular, sistemas en la mañana, ambiental en la tarde, por tal motivo se estructura el contenido con base en las necesidades de cada grado; por otro lado se menciona que los últimos ajustes se realizaron antes del 2020. En términos generales, se basa principalmente en ofimática, haciendo énfasis en excel, ya en once se trabaja el concepto y lo que es internet, se explora dream weaver y front page. En la entrevista con el líder de área Alexander Rodríguez, él menciona que con la técnica se están explorando simuladores de OVAS, creando prototipos en power point, Para ampliar el contexto, se tuvo acercamiento con la docente formada CFK Marcela Tipasoca, quien menciona que de forma autónoma, desde el 2021, ha añadido otros temas, como programación con 7° y 8°, con 6° se empezó a explorar la creación e interacción del correos electrónico, estas estrategias se abordaron para subsanar y fortalecer algunas necesidades en los y las estudiantes, pero en términos generales el enfoque dle plan de estudio es ofimática y algo de alfabetización digital.</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se menciona y aclara que para los y las estudiantes con necesidades especiales, se maneja un proceso más cercano y un seguimiento constante diferente al de sus demás compañeros y compañeras, valorando y exaltando su proceso y cada actividad de la clase, sin embargo, esto no se menciona de forma concreta en el plan de área. Se exalta la participación de una profesional externa enviada por secretaría de educación que de forma general hace un acompañamiento en algunos momentos del año, ya que esto no es constante. </t>
+        </is>
+      </c>
+      <c r="AC260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AI260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AJ260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En el plan de área no se hace mucho énfasis en este ítem. </t>
+        </is>
+      </c>
+      <c r="AN260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AR260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AS260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AT260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AU260" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AV260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW260" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="AX260" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AY260" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
